--- a/results/logistic/dilemma/confidence-reverse/0.1/percents/scores-10.xlsx
+++ b/results/logistic/dilemma/confidence-reverse/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="77">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -49,127 +49,109 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>black</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>few</t>
+    <t>worst</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>going</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -184,61 +166,61 @@
     <t>more</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>own</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>real</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>much</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>action</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>then</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>most</t>
   </si>
   <si>
     <t>true</t>
@@ -620,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS45"/>
+  <dimension ref="A1:BS39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,25 +613,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="S1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AT1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="BC1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BL1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -851,13 +833,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1116579893253305</v>
+        <v>0.1058494859250965</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -869,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>0.002713151478633952</v>
+        <v>0.004649893362853747</v>
       </c>
       <c r="L3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -893,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.04865233424588929</v>
+        <v>0.04976173183728699</v>
       </c>
       <c r="U3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -917,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AC3">
-        <v>0.001880836206122002</v>
+        <v>0.002946527977434437</v>
       </c>
       <c r="AD3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AE3">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -941,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>50</v>
+        <v>1074</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.03701699139413551</v>
+        <v>0.03940899945212437</v>
       </c>
       <c r="AM3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -965,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AU3">
-        <v>0.06248845115228582</v>
+        <v>0.002161943070185278</v>
       </c>
       <c r="AV3">
         <v>7</v>
@@ -995,13 +977,13 @@
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.03212091709939362</v>
+        <v>0.03505311149123312</v>
       </c>
       <c r="BE3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1013,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="BM3">
-        <v>0.05287116852406943</v>
+        <v>0.06270968400431773</v>
       </c>
       <c r="BN3">
         <v>7</v>
@@ -1045,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.05181124460269884</v>
+        <v>0.0549188625356976</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1066,10 +1048,10 @@
         <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.001686746116645905</v>
+        <v>0.00168498967362922</v>
       </c>
       <c r="L4">
         <v>7</v>
@@ -1093,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.03166937077523371</v>
+        <v>0.03558521926769533</v>
       </c>
       <c r="U4">
         <v>5</v>
@@ -1114,16 +1096,16 @@
         <v>61</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC4">
-        <v>0.001500798820603849</v>
+        <v>0.001878751990980119</v>
       </c>
       <c r="AD4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1135,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.02794974263449252</v>
+        <v>0.03201659652572442</v>
       </c>
       <c r="AM4">
         <v>5</v>
@@ -1162,10 +1144,10 @@
         <v>61</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AU4">
-        <v>0.05455741474931181</v>
+        <v>0.001579541092152602</v>
       </c>
       <c r="AV4">
         <v>6</v>
@@ -1189,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.02638454804092397</v>
+        <v>0.03051510684547422</v>
       </c>
       <c r="BE4">
         <v>5</v>
@@ -1210,10 +1192,10 @@
         <v>61</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="BM4">
-        <v>0.04804086961427373</v>
+        <v>0.05345222460881495</v>
       </c>
       <c r="BN4">
         <v>6</v>
@@ -1239,13 +1221,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.03519246050690577</v>
+        <v>0.04662276579596077</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1257,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.001445390671064555</v>
+        <v>0.001443854173257344</v>
       </c>
       <c r="L5">
         <v>6</v>
@@ -1287,13 +1269,13 @@
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.02741604678688654</v>
+        <v>0.03346223057540529</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1305,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AC5">
-        <v>0.001168735139526529</v>
+        <v>0.001498976984058543</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1329,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.02597996553869666</v>
+        <v>0.03103304614112374</v>
       </c>
       <c r="AM5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1353,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AU5">
-        <v>0.05124219954811801</v>
+        <v>0.001384752172794507</v>
       </c>
       <c r="AV5">
         <v>4</v>
@@ -1377,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.02537567217373032</v>
+        <v>0.03001097246642543</v>
       </c>
       <c r="BE5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1401,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BM5">
-        <v>0.04749760786421861</v>
+        <v>0.05333220541213598</v>
       </c>
       <c r="BN5">
         <v>4</v>
@@ -1425,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1433,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03486177190611445</v>
+        <v>0.03799694249880168</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1454,10 +1436,10 @@
         <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.001052787377787959</v>
+        <v>0.001056396672342121</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -1475,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.02700365409611136</v>
+        <v>0.0309282189071577</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -1502,10 +1484,10 @@
         <v>37</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AC6">
-        <v>0.001114435225128747</v>
+        <v>0.001189791094400903</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1523,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.02555248443882306</v>
+        <v>0.02962346700829568</v>
       </c>
       <c r="AM6">
         <v>3</v>
@@ -1550,10 +1532,10 @@
         <v>37</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AU6">
-        <v>0.04965043403109696</v>
+        <v>0.001343474937189943</v>
       </c>
       <c r="AV6">
         <v>4</v>
@@ -1571,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD6">
-        <v>0.024941841972427</v>
+        <v>0.02918284637159762</v>
       </c>
       <c r="BE6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1595,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="BM6">
-        <v>0.04654557877504654</v>
+        <v>0.05254944372727102</v>
       </c>
       <c r="BN6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BO6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1619,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1627,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03466887022231951</v>
+        <v>0.03728253495772012</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1645,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.001041355816862111</v>
+        <v>0.001052362055328141</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -1669,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.02676309169315918</v>
+        <v>0.03003766912591634</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -1693,92 +1675,92 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AC7">
-        <v>0.0009707621728715266</v>
+        <v>0.001170626663584498</v>
       </c>
       <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>32</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL7">
+        <v>0.02924345735035045</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU7">
+        <v>0.001336595397922516</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>4</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>33</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD7">
+        <v>0.02907449569552917</v>
+      </c>
+      <c r="BE7">
         <v>3</v>
       </c>
-      <c r="AE7">
+      <c r="BF7">
         <v>3</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>15</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL7">
-        <v>0.02530312046389679</v>
-      </c>
-      <c r="AM7">
-        <v>3</v>
-      </c>
-      <c r="AN7">
-        <v>3</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>44</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU7">
-        <v>0.0486482592904499</v>
-      </c>
-      <c r="AV7">
-        <v>3</v>
-      </c>
-      <c r="AW7">
-        <v>3</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>15</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD7">
-        <v>0.02476277668980767</v>
-      </c>
-      <c r="BE7">
-        <v>2</v>
-      </c>
-      <c r="BF7">
-        <v>2</v>
-      </c>
       <c r="BG7">
         <v>1</v>
       </c>
@@ -1789,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="BM7">
-        <v>0.04634093090017296</v>
+        <v>0.05241898344646018</v>
       </c>
       <c r="BN7">
         <v>4</v>
@@ -1813,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1821,13 +1803,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03414527993773325</v>
+        <v>0.03016795838207969</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1839,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.0008497612835462209</v>
+        <v>0.001051689619159145</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1863,19 +1845,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.02611013659943181</v>
+        <v>0.02938751276414085</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1887,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AC8">
-        <v>0.0009132681458621102</v>
+        <v>0.001167432591781764</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1917,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="AL8">
-        <v>0.02488820671583034</v>
+        <v>0.02895943818486553</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1938,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AU8">
-        <v>0.04696286050772172</v>
+        <v>0.001146327158133199</v>
       </c>
       <c r="AV8">
         <v>3</v>
@@ -1959,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD8">
-        <v>0.02472662417303239</v>
+        <v>0.02889461811036597</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1983,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="BM8">
-        <v>0.04532086198958644</v>
+        <v>0.05059776005717453</v>
       </c>
       <c r="BN8">
         <v>3</v>
@@ -2007,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2015,7 +1997,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0268003963088114</v>
+        <v>0.02994814067713152</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2036,10 +2018,10 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.0008376572778600281</v>
+        <v>0.0008488829804200784</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -2057,13 +2039,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.02518628662001917</v>
+        <v>0.02911349744683582</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -2084,16 +2066,16 @@
         <v>10</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AC9">
-        <v>0.0007536245305467186</v>
+        <v>0.0009697196776160336</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2105,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL9">
-        <v>0.02485258329084087</v>
+        <v>0.02892393578917992</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2132,10 +2114,10 @@
         <v>11</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AU9">
-        <v>0.04549251943853907</v>
+        <v>0.0006671182691119334</v>
       </c>
       <c r="AV9">
         <v>2</v>
@@ -2153,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9">
-        <v>0.02469047165625711</v>
+        <v>0.02885858957771202</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2177,19 +2159,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BM9">
-        <v>0.04518531075738778</v>
+        <v>0.04369380625833257</v>
       </c>
       <c r="BN9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP9">
         <v>0</v>
@@ -2201,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2209,7 +2191,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02677283892541213</v>
+        <v>0.02992066346401301</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2230,10 +2212,10 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.000642700520742418</v>
+        <v>0.0006178340225831524</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2251,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.02515192056245457</v>
+        <v>0.02907924553217269</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2278,10 +2260,10 @@
         <v>11</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC10">
-        <v>0.0006833540530907655</v>
+        <v>0.0006378557477354697</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2299,67 +2281,67 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AK10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL10">
+        <v>0.02870040472046968</v>
+      </c>
+      <c r="AM10">
+        <v>3</v>
+      </c>
+      <c r="AN10">
+        <v>3</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>63</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU10">
+        <v>0.0005938021968688814</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BC10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AL10">
-        <v>0.0248169598658514</v>
-      </c>
-      <c r="AM10">
-        <v>2</v>
-      </c>
-      <c r="AN10">
-        <v>2</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>12</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU10">
-        <v>0.04343258759298241</v>
-      </c>
-      <c r="AV10">
-        <v>2</v>
-      </c>
-      <c r="AW10">
-        <v>2</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>25</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="BD10">
-        <v>0.02468877435500006</v>
+        <v>0.02831816158790269</v>
       </c>
       <c r="BE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2371,19 +2353,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="BM10">
-        <v>0.04368843468626989</v>
+        <v>0.04343288569671092</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP10">
         <v>0</v>
@@ -2395,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2403,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02674528154201285</v>
+        <v>0.02950850526723518</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2421,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.0006279067360148489</v>
+        <v>0.0006090923523861958</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2445,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.02511755450488997</v>
+        <v>0.02856546681222575</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2469,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AC11">
-        <v>0.0006737717152558628</v>
+        <v>0.0005963328142999261</v>
       </c>
       <c r="AD11">
         <v>2</v>
@@ -2493,19 +2475,19 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.02462627538909692</v>
+        <v>0.02839139985389568</v>
       </c>
       <c r="AM11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO11">
         <v>1</v>
@@ -2517,19 +2499,19 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AU11">
-        <v>0.04315168779586104</v>
+        <v>0.0005800431183340267</v>
       </c>
       <c r="AV11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -2541,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD11">
-        <v>0.02418433642140324</v>
+        <v>0.02831816158790269</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2568,16 +2550,16 @@
         <v>26</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="BM11">
-        <v>0.04348431522202653</v>
+        <v>0.04343288569671092</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -2589,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2597,7 +2579,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02635947817442297</v>
+        <v>0.02950850526723518</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2618,10 +2600,10 @@
         <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.0006258894017338168</v>
+        <v>0.0006016955545272325</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2639,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.02463642969898559</v>
+        <v>0.02856546681222575</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2666,34 +2648,34 @@
         <v>26</v>
       </c>
       <c r="AB12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12">
+        <v>0.0005611980244698506</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <v>63</v>
-      </c>
-      <c r="AC12">
-        <v>0.0006641893774209601</v>
-      </c>
-      <c r="AD12">
-        <v>2</v>
-      </c>
-      <c r="AE12">
-        <v>2</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>1</v>
-      </c>
-      <c r="AH12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>31</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL12">
-        <v>0.02431823191599886</v>
+        <v>0.02839139985389568</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2714,16 +2696,16 @@
         <v>26</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AU12">
-        <v>0.04287078799873968</v>
+        <v>0.0005800431183340267</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2735,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD12">
-        <v>0.02400187653626979</v>
+        <v>0.02813775384652632</v>
       </c>
       <c r="BE12">
         <v>3</v>
@@ -2762,10 +2744,10 @@
         <v>63</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="BM12">
-        <v>0.04328019575778318</v>
+        <v>0.04329720487383416</v>
       </c>
       <c r="BN12">
         <v>2</v>
@@ -2783,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2791,7 +2773,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02616657649062803</v>
+        <v>0.02931616477540554</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2812,16 +2794,16 @@
         <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.0006238720674527847</v>
+        <v>0.0004264587987170291</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2833,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.0243958672960334</v>
+        <v>0.02832570340958385</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2860,16 +2842,16 @@
         <v>33</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AC13">
-        <v>0.0006386364765278862</v>
+        <v>0.0004944420542162191</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2881,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL13">
-        <v>0.02406886794107259</v>
+        <v>0.02814288308409638</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2908,10 +2890,10 @@
         <v>33</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AU13">
-        <v>0.04212172187308271</v>
+        <v>0.0005776842586353779</v>
       </c>
       <c r="AV13">
         <v>2</v>
@@ -2929,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD13">
-        <v>0.02393296610523335</v>
+        <v>0.02810225547008554</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -2953,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="BM13">
-        <v>0.04314464452558453</v>
+        <v>0.04265012401184595</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2977,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2985,7 +2967,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02589100265663526</v>
+        <v>0.02931616477540554</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3003,19 +2985,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.0006184925093700323</v>
+        <v>0.0004251139263790358</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3027,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.02405220672038742</v>
+        <v>0.02832570340958385</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -3051,19 +3033,19 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AC14">
-        <v>0.0006250538276191865</v>
+        <v>0.0004880539106107509</v>
       </c>
       <c r="AD14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3075,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1083</v>
+        <v>6</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL14">
-        <v>0.02371263369117792</v>
+        <v>0.02814288308409638</v>
       </c>
       <c r="AM14">
         <v>2</v>
@@ -3099,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AU14">
-        <v>0.04140044692955702</v>
+        <v>0.0005387658827294626</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3123,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.0239312688039763</v>
+        <v>0.02806596185932499</v>
       </c>
       <c r="BE14">
         <v>2</v>
@@ -3150,10 +3132,10 @@
         <v>33</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="BM14">
-        <v>0.04273640559709783</v>
+        <v>0.04251966373103513</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3171,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3179,7 +3161,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.02498160900445912</v>
+        <v>0.02904139264422032</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3197,19 +3179,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.0006057160589234954</v>
+        <v>0.0004251139263790358</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3221,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.02291812682075567</v>
+        <v>0.02798318426295256</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -3245,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AC15">
-        <v>0.0005779483369068358</v>
+        <v>0.0004880539106107509</v>
       </c>
       <c r="AD15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3269,19 +3251,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15">
-        <v>0.02358270734302721</v>
+        <v>0.02778785912724023</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -3293,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AU15">
-        <v>0.0408386473353143</v>
+        <v>0.0005318863434620353</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3317,19 +3299,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.0238606610716828</v>
+        <v>0.02806596185932499</v>
       </c>
       <c r="BE15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -3341,19 +3323,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BM15">
-        <v>0.04273587718646758</v>
+        <v>0.04199782260779182</v>
       </c>
       <c r="BN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -3365,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3373,13 +3355,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01824298781032137</v>
+        <v>0.02813464461130913</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3391,19 +3373,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.0006050436141631512</v>
+        <v>0.0004210793093650559</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3415,19 +3397,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.0227503301077642</v>
+        <v>0.0268528710790693</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -3439,19 +3421,19 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AC16">
-        <v>0.0005747542242952016</v>
+        <v>0.0004688894797943462</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -3463,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.02351146049304827</v>
+        <v>0.02769186863477992</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3487,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AU16">
-        <v>0.04074501406960717</v>
+        <v>0.000504368186392326</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3511,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD16">
-        <v>0.02382450855490752</v>
+        <v>0.02781402720885389</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3535,19 +3517,19 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BM16">
-        <v>0.04266836577568338</v>
+        <v>0.04160122122329341</v>
       </c>
       <c r="BN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -3559,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3567,7 +3549,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01818787304352281</v>
+        <v>0.02143222623244651</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3585,19 +3567,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.000602353835121775</v>
+        <v>0.0004204068731960593</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3609,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.02268159799263501</v>
+        <v>0.02671649343724075</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3633,19 +3615,19 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AC17">
-        <v>0.0005619777738486646</v>
+        <v>0.000465695407991612</v>
       </c>
       <c r="AD17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3657,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.0234758370680588</v>
+        <v>0.027407849469295</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3681,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AU17">
-        <v>0.04037048100677869</v>
+        <v>0.000502009326693677</v>
       </c>
       <c r="AV17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -3705,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD17">
-        <v>0.02378835603813225</v>
+        <v>0.02774197014354598</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3729,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="BM17">
-        <v>0.04239620649002558</v>
+        <v>0.04056275951887272</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3753,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3761,7 +3743,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01816031566012354</v>
+        <v>0.02121240852749835</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3779,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.0004289153103351747</v>
+        <v>0.0004177171285200726</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3803,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18">
-        <v>0.02264723193507041</v>
+        <v>0.02644247811993572</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3827,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AC18">
-        <v>0.0005045457621055686</v>
+        <v>0.0004529191207806755</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3851,13 +3833,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL18">
-        <v>0.02344021364306934</v>
+        <v>0.02733684467792378</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3875,19 +3857,19 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="AU18">
-        <v>0.04034268982464741</v>
+        <v>0.0004569939525908295</v>
       </c>
       <c r="AV18">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AW18">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -3899,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>58</v>
+        <v>1074</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD18">
-        <v>0.02367989848780641</v>
+        <v>0.02770594161089203</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3923,19 +3905,19 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="BM18">
-        <v>0.04219208702578223</v>
+        <v>0.04016615813437432</v>
       </c>
       <c r="BN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP18">
         <v>0</v>
@@ -3947,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3955,7 +3937,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01813275827672426</v>
+        <v>0.0211574541012613</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3973,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.0004248806417731104</v>
+        <v>0.0004103203306611093</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3997,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.02261286587750581</v>
+        <v>0.02637397429060945</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4021,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AC19">
-        <v>0.0004853810864357633</v>
+        <v>0.0004177843309506001</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4045,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL19">
-        <v>0.02333334336810093</v>
+        <v>0.02730134228223816</v>
       </c>
       <c r="AM19">
         <v>1</v>
@@ -4069,19 +4051,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AU19">
-        <v>0.04024905655894028</v>
+        <v>0.0004286932544506251</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4093,19 +4075,19 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="BD19">
-        <v>0.02367989848780641</v>
+        <v>0.02770567653278543</v>
       </c>
       <c r="BE19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG19">
         <v>1</v>
@@ -4117,19 +4099,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BM19">
-        <v>0.04144312057959304</v>
+        <v>0.03664895109454792</v>
       </c>
       <c r="BN19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <v>0</v>
@@ -4149,7 +4131,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01805008612652643</v>
+        <v>0.02112997688814278</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4167,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.0004242081970127664</v>
+        <v>0.0003901472455912096</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4191,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.02250976770481201</v>
+        <v>0.02633972237594633</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4215,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AC20">
-        <v>0.000482186973824129</v>
+        <v>0.0003219621768685763</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4239,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL20">
-        <v>0.02333334336810093</v>
+        <v>0.02726583988655254</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4263,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AU20">
-        <v>0.04008958120965733</v>
+        <v>0.0002223070764278047</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4287,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD20">
-        <v>0.02357144093748058</v>
+        <v>0.02766991307823807</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4311,19 +4293,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BM20">
-        <v>0.04137508075817859</v>
+        <v>0.03651849081373709</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>0</v>
@@ -4343,7 +4325,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01805008612652643</v>
+        <v>0.02110249967502426</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4361,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.0004215184179713902</v>
+        <v>0.0003894748094222129</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4385,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.02250976770481201</v>
+        <v>0.0263054704612832</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4409,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AC21">
-        <v>0.000469410523377592</v>
+        <v>0.0003187681050658423</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4433,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL21">
-        <v>0.02322647309313253</v>
+        <v>0.02723033749086693</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -4457,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AU21">
-        <v>0.0398745234961118</v>
+        <v>0.0002154275371603773</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>0</v>
@@ -4481,13 +4463,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD21">
-        <v>0.02357144093748058</v>
+        <v>0.02763388454558411</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4505,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="BM21">
-        <v>0.04130756934739438</v>
+        <v>0.03638803053292626</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4529,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4537,7 +4519,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0179674139763286</v>
+        <v>0.02107502246190574</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4555,13 +4537,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.0004195010836903581</v>
+        <v>0.0003888023732532163</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4579,13 +4561,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22">
-        <v>0.02240666953211821</v>
+        <v>0.02627121854662007</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4603,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC22">
-        <v>0.0004598281855426894</v>
+        <v>0.0003155740332631081</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4627,13 +4609,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL22">
-        <v>0.02322647309313253</v>
+        <v>0.02723033749086693</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -4651,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AU22">
-        <v>0.03887234875546475</v>
+        <v>0.00020854799789295</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4675,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD22">
-        <v>0.02357144093748058</v>
+        <v>0.02763388454558411</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4699,19 +4681,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BL22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BM22">
-        <v>0.04110292147252079</v>
+        <v>0.03638803053292626</v>
       </c>
       <c r="BN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP22">
         <v>0</v>
@@ -4723,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4731,7 +4713,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0179674139763286</v>
+        <v>0.02107502246190574</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4749,13 +4731,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.0004107593018058854</v>
+        <v>0.0003888023732532163</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4773,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23">
-        <v>0.02240666953211821</v>
+        <v>0.02627121854662007</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4797,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AC23">
-        <v>0.0004183047215914444</v>
+        <v>0.0003155740332631081</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4821,13 +4803,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL23">
-        <v>0.02322647309313253</v>
+        <v>0.02723033749086693</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -4845,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AU23">
-        <v>0.03709331670702945</v>
+        <v>0.00020854799789295</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4869,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD23">
-        <v>0.02357144093748058</v>
+        <v>0.02763388454558411</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4893,13 +4875,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="BM23">
-        <v>0.04001481274051983</v>
+        <v>0.03599664969049379</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4917,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4925,7 +4907,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0179674139763286</v>
+        <v>0.02107502246190574</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4943,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.0003979828513593485</v>
+        <v>0.0003867850647462263</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4967,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T24">
-        <v>0.02240666953211821</v>
+        <v>0.02627121854662007</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4991,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC24">
-        <v>0.0003576165819703938</v>
+        <v>0.0003059918178549057</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5015,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL24">
-        <v>0.02322647309313253</v>
+        <v>0.02715933269949569</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5039,13 +5021,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AU24">
-        <v>0.03493975159576566</v>
+        <v>0.0001879093800906679</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5063,19 +5045,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BD24">
-        <v>0.02356974363622353</v>
+        <v>0.0275618274802762</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>1</v>
@@ -5087,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BM24">
-        <v>0.03844989684798748</v>
+        <v>0.03508342772481799</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5119,7 +5101,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0179674139763286</v>
+        <v>0.0210200680356687</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5137,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.0003825166218714353</v>
+        <v>0.0003820780115632497</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5167,7 +5149,7 @@
         <v>31</v>
       </c>
       <c r="T25">
-        <v>0.02240666953211821</v>
+        <v>0.02620271471729381</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5185,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AC25">
-        <v>0.0002841519919028064</v>
+        <v>0.0002836333152357669</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5215,7 +5197,7 @@
         <v>32</v>
       </c>
       <c r="AL25">
-        <v>0.02319084966814307</v>
+        <v>0.02715933269949569</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5233,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AU25">
-        <v>0.03456521853293718</v>
+        <v>0.0001397526052186765</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5257,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD25">
-        <v>0.02353528842070531</v>
+        <v>0.0275618274802762</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5281,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BM25">
-        <v>0.03817773756232969</v>
+        <v>0.03456158660157468</v>
       </c>
       <c r="BN25">
         <v>1</v>
@@ -5313,7 +5295,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01793985659292932</v>
+        <v>0.0210200680356687</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5331,13 +5313,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.0003798268428300591</v>
+        <v>0.0003793882668872631</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5361,7 +5343,7 @@
         <v>32</v>
       </c>
       <c r="T26">
-        <v>0.02237230347455362</v>
+        <v>0.02620271471729381</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5379,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AC26">
-        <v>0.0002713755414562695</v>
+        <v>0.0002708570280248304</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5409,7 +5391,7 @@
         <v>33</v>
       </c>
       <c r="AL26">
-        <v>0.02319084966814307</v>
+        <v>0.02705282551243885</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5427,19 +5409,19 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>0.0001122344481489671</v>
       </c>
       <c r="AV26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AW26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -5451,13 +5433,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>1083</v>
+        <v>74</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD26">
-        <v>0.02353528842070531</v>
+        <v>0.02745374188231434</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5475,19 +5457,19 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="BM26">
         <v>0</v>
       </c>
       <c r="BN26">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BO26">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BP26">
         <v>0</v>
@@ -5499,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>1083</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5507,7 +5489,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.01793985659292932</v>
+        <v>0.02093763639631313</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5525,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.02237230347455362</v>
+        <v>0.02609995897330442</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5549,13 +5531,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL27">
-        <v>0.0231552262431536</v>
+        <v>0.02705282551243885</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5573,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD27">
-        <v>0.02349913590393003</v>
+        <v>0.02745374188231434</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5597,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5605,7 +5587,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01791229920953005</v>
+        <v>0.02093763639631313</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5623,13 +5605,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.02233793741698902</v>
+        <v>0.02609995897330442</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5647,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL28">
-        <v>0.02311960281816413</v>
+        <v>0.02701732311675323</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5671,13 +5653,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD28">
-        <v>0.02346298338715475</v>
+        <v>0.02741771334966038</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5695,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5703,7 +5685,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.01788474182613077</v>
+        <v>0.02091015918319461</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5721,13 +5703,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.02230357135942442</v>
+        <v>0.02606570705864129</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -5745,13 +5727,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL29">
-        <v>0.02311960281816413</v>
+        <v>0.02698182072106762</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -5769,13 +5751,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD29">
-        <v>0.02346298338715475</v>
+        <v>0.02738168481700642</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -5793,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -5801,7 +5783,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01788474182613077</v>
+        <v>0.02088268197007609</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5819,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.02230357135942442</v>
+        <v>0.02603145514397816</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -5843,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL30">
-        <v>0.02308397939317466</v>
+        <v>0.02691081592969639</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -5867,13 +5849,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD30">
-        <v>0.02342683087037948</v>
+        <v>0.02730962775169851</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -5891,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -5899,7 +5881,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01785718444273149</v>
+        <v>0.02082772754383905</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5917,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.02226920530185983</v>
+        <v>0.02596295131465191</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -5941,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL31">
-        <v>0.02308397939317466</v>
+        <v>0.02683981113832516</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -5965,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD31">
-        <v>0.02342683087037948</v>
+        <v>0.0272375706863906</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -5989,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -5997,7 +5979,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01785718444273149</v>
+        <v>0.020772773117602</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6015,13 +5997,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0.02226920530185983</v>
+        <v>0.02589444748532565</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6039,13 +6021,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AL32">
-        <v>0.02297710911820626</v>
+        <v>0.02680430874263954</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6063,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="BD32">
-        <v>0.02331837332005364</v>
+        <v>0.02720154215373664</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6087,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:62">
@@ -6095,7 +6077,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01777451229253366</v>
+        <v>0.02074529590448349</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6113,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33">
-        <v>0.02216610712916603</v>
+        <v>0.02586019557066252</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6137,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AL33">
-        <v>0.02297710911820626</v>
+        <v>0.02673330395126831</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6161,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="BD33">
-        <v>0.02331837332005364</v>
+        <v>0.02712948508842873</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6185,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:62">
@@ -6193,7 +6175,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01777451229253366</v>
+        <v>0.02069034147824644</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6211,13 +6193,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T34">
-        <v>0.02216610712916603</v>
+        <v>0.02579169174133626</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6235,13 +6217,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AL34">
-        <v>0.02294148569321679</v>
+        <v>0.02666229915989708</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -6259,13 +6241,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BC34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BD34">
-        <v>0.02328222080327837</v>
+        <v>0.02705742802312082</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -6283,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:62">
@@ -6291,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.01774695490913438</v>
+        <v>0.0206353870520094</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -6309,13 +6291,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T35">
-        <v>0.02213174107160143</v>
+        <v>0.02572318791201</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6333,19 +6315,19 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AL35">
-        <v>0.02290586226822733</v>
+        <v>0.02661628006961492</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO35">
         <v>1</v>
@@ -6357,13 +6339,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="BC35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="BD35">
-        <v>0.02324606828650309</v>
+        <v>0.02673317122923522</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -6381,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:62">
@@ -6389,7 +6371,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01771939752573511</v>
+        <v>0.02038809213394271</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6407,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T36">
-        <v>0.02209737501403683</v>
+        <v>0.02541492068004184</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6431,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL36">
-        <v>0.0228346154182484</v>
+        <v>0.02634277759872654</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -6455,19 +6437,19 @@
         <v>0</v>
       </c>
       <c r="AR36">
+        <v>38</v>
+      </c>
+      <c r="BC36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BC36" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="BD36">
-        <v>0.02317376325295254</v>
+        <v>0.02651673495520489</v>
       </c>
       <c r="BE36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG36">
         <v>1</v>
@@ -6479,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:62">
@@ -6487,7 +6469,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.01766428275893655</v>
+        <v>0.02019575164211306</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6505,13 +6487,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T37">
-        <v>0.02202864289890763</v>
+        <v>0.02517515727739993</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6529,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AL37">
-        <v>0.02276336856826946</v>
+        <v>0.02609426082892724</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -6553,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD37">
-        <v>0.02310145821940198</v>
+        <v>0.02648097150065753</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -6577,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:62">
@@ -6585,7 +6567,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.017609167992138</v>
+        <v>0.0132440167231272</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6603,13 +6585,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T38">
-        <v>0.02195991078377844</v>
+        <v>0.01650942286762826</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6627,13 +6609,13 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL38">
-        <v>0.02272774514327999</v>
+        <v>0.01711215472046657</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -6651,13 +6633,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD38">
-        <v>0.02306530570262671</v>
+        <v>0.0173657527392067</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -6675,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>25</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:62">
@@ -6683,7 +6665,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01758161060873872</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -6701,13 +6683,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>25</v>
+        <v>780</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="T39">
-        <v>0.02192554472621384</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6725,13 +6707,13 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>25</v>
+        <v>780</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL39">
-        <v>0.02265649829330106</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -6749,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>27</v>
+        <v>780</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BD39">
-        <v>0.02299300066907615</v>
+        <v>0</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -6773,595 +6755,7 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:62">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0.01752649584194017</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>27</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40">
-        <v>0.02185681261108464</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>27</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL40">
-        <v>0.02253706066652551</v>
-      </c>
-      <c r="AM40">
-        <v>2</v>
-      </c>
-      <c r="AN40">
-        <v>2</v>
-      </c>
-      <c r="AO40">
-        <v>1</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>76</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD40">
-        <v>0.02273993305164921</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>1</v>
-      </c>
-      <c r="BH40">
-        <v>0</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:62">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41">
-        <v>0.01733359415814523</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>34</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T41">
-        <v>0.02161625020813245</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>34</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL41">
-        <v>0.02240713431837479</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>1</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>34</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD41">
-        <v>0.02273993305164921</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>1</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:62">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42">
-        <v>0.01733359415814523</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>34</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T42">
-        <v>0.02161625020813245</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>34</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL42">
-        <v>0.02240713431837479</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>1</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>34</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD42">
-        <v>0.0225953229845481</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>1</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:62">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43">
-        <v>0.01722336462454812</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>38</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T43">
-        <v>0.02147878597787406</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>38</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL43">
-        <v>0.02226464061841692</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>1</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>38</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BD43">
-        <v>0.02237671058263939</v>
-      </c>
-      <c r="BE43">
-        <v>2</v>
-      </c>
-      <c r="BF43">
-        <v>2</v>
-      </c>
-      <c r="BG43">
-        <v>1</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:62">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44">
-        <v>0.01468808535181464</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>130</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T44">
-        <v>0.018317108681931</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>130</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL44">
-        <v>0.01898728551938595</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>1</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>130</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD44">
-        <v>0.01926929144122263</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>1</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:62">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>663</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>663</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>663</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD45">
-        <v>0</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>1</v>
-      </c>
-      <c r="BH45">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>663</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
